--- a/untitled/data/testcase.xlsx
+++ b/untitled/data/testcase.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22620" windowHeight="9480" firstSheet="2" activeTab="8"/>
+    <workbookView windowWidth="27000" windowHeight="12390" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="Teacherlist" sheetId="1" r:id="rId1"/>
+    <sheet name="Teacherlist1" sheetId="10" r:id="rId1"/>
     <sheet name="Addteacher" sheetId="2" r:id="rId2"/>
     <sheet name="Updateteacher" sheetId="3" r:id="rId3"/>
     <sheet name="Qualificationinfo" sheetId="4" r:id="rId4"/>
@@ -22,96 +22,170 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="186">
   <si>
     <t>用例编号</t>
   </si>
   <si>
-    <t>用例标题</t>
-  </si>
-  <si>
-    <t>请求地址</t>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>接口名称</t>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>标题</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>前置条件</t>
   </si>
   <si>
     <t>请求方式</t>
   </si>
   <si>
-    <t>params</t>
-  </si>
-  <si>
-    <t>code</t>
+    <t>请求头</t>
+  </si>
+  <si>
+    <t>请求参数</t>
   </si>
   <si>
     <t>预期结果</t>
   </si>
   <si>
-    <t>list-001</t>
+    <t>响应预期结果</t>
+  </si>
+  <si>
+    <t>实际结果</t>
+  </si>
+  <si>
+    <t>Login001</t>
+  </si>
+  <si>
+    <t>教师列表</t>
+  </si>
+  <si>
+    <t>获取教师列表</t>
+  </si>
+  <si>
+    <t>高</t>
   </si>
   <si>
     <t>获取教师列表成功</t>
   </si>
   <si>
-    <t>https://jdapi.jd100.com/coursemgr/v1/getTeacherList</t>
+    <t>/coursemgr/v1/getTeacherList</t>
+  </si>
+  <si>
+    <t>optertoken可以成功获取</t>
   </si>
   <si>
     <t>get</t>
   </si>
   <si>
-    <t>{"opterToken": opterToken}</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>list-002</t>
-  </si>
-  <si>
-    <t>获取教室列表失败</t>
+    <t>{"opterToken": "opterToken"}</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>列表获取成功，返回正确信息</t>
+  </si>
+  <si>
+    <t>{
+    "code": 0,
+    "message": "Success",
+    "data": [
+        {
+            "guid": "",
+            "displayName": "待定",
+            "realName": "",
+            "techSubject": "",
+            "techGrade": "",
+            "sex": 0,
+            "isTaught": 1,
+            "IDNum": "",
+            "certificateNum": "",
+            "styleMethod": "",
+            "backgroundResume": "",
+            "courseUrl": "https://img.jiandan100.cn/data/images/teacher/who_s.jpg",
+            "qualificationUrl": "",
+            "certificateUrl": "",
+            "middleSizeUrl": "",
+            "level": "",
+            "isDisplay": 0,
+            "insertTime": "2011-06-13 15:37:48",
+            "updateTime": "2020-01-03 01:59:33"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>List002</t>
+  </si>
+  <si>
+    <t>optertoken为空</t>
   </si>
   <si>
     <t>{"opterToken": ""}</t>
   </si>
   <si>
-    <t>100002001</t>
-  </si>
-  <si>
     <t>缺少必要的参数</t>
   </si>
   <si>
-    <t>list-003</t>
+    <t>{
+    "code": 100002001,
+    "data": null,
+    "message": "缺少必要的参数"
+}</t>
+  </si>
+  <si>
+    <t>List001</t>
+  </si>
+  <si>
+    <t>optertoken为无效</t>
   </si>
   <si>
     <t>{"opterToken": "123"}</t>
   </si>
   <si>
-    <t>100001003</t>
-  </si>
-  <si>
     <t>token无效</t>
   </si>
   <si>
-    <t>headers</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>add-001</t>
+    <t>{
+    "code": 100001003,
+    "data": null,
+    "message": "token无效"
+}</t>
+  </si>
+  <si>
+    <t>Add001</t>
+  </si>
+  <si>
+    <t>添加老师</t>
+  </si>
+  <si>
+    <t>添加老师信息</t>
   </si>
   <si>
     <t>添加老师成功</t>
   </si>
   <si>
-    <t>https://jdapi.jd100.com/coursemgr/v1/addTeacherInfo</t>
+    <t>/coursemgr/v1/addTeacherInfo</t>
+  </si>
+  <si>
+    <t>optertoken获取正常</t>
   </si>
   <si>
     <t>post</t>
   </si>
   <si>
-    <t>{"Content-Type":"application/x-www-form-urlencoded","opterToken": opterToken}</t>
+    <t>{"opterToken":opterToken
+"Content-Type":"application/x-www-form-urlencoded"}</t>
   </si>
   <si>
     <t>{
@@ -122,7 +196,34 @@
 }</t>
   </si>
   <si>
-    <t>add-002</t>
+    <t>{
+    "code": 0,
+    "message": "Success",
+    "data": {
+        "guid": "bbfbf2db889c4ffeb0e93b2742e4adce",
+        "displayName": "测试add",
+        "realName": "测试0706001",
+        "techSubject": "语文",
+        "techGrade": "高一",
+        "sex": 0,
+        "isTaught": 0,
+        "IDNum": "",
+        "certificateNum": "",
+        "styleMethod": "",
+        "backgroundResume": "",
+        "courseUrl": "",
+        "qualificationUrl": "",
+        "certificateUrl": "",
+        "middleSizeUrl": "",
+        "level": "",
+        "isDisplay": 0,
+        "insertTime": "2020-09-30 07:24:03",
+        "updateTime": "2020-09-30 07:24:03"
+    }
+}</t>
+  </si>
+  <si>
+    <t>Add002</t>
   </si>
   <si>
     <t>添加老师缺少displayname</t>
@@ -136,7 +237,17 @@
 }</t>
   </si>
   <si>
-    <t>add-003</t>
+    <t>添加老师失败</t>
+  </si>
+  <si>
+    <t>{
+    "code": 100002001,
+    "message": "缺少必要的参数",
+    "data": null
+}</t>
+  </si>
+  <si>
+    <t>Add003</t>
   </si>
   <si>
     <t>添加老师缺少realname</t>
@@ -150,7 +261,7 @@
 }</t>
   </si>
   <si>
-    <t>add-004</t>
+    <t>Add004</t>
   </si>
   <si>
     <t>添加老师缺少techsubject</t>
@@ -164,7 +275,7 @@
 }</t>
   </si>
   <si>
-    <t>add-005</t>
+    <t>Add005</t>
   </si>
   <si>
     <t>添加老师缺少techgrade</t>
@@ -178,16 +289,16 @@
 }</t>
   </si>
   <si>
-    <t>update-001</t>
-  </si>
-  <si>
-    <t>更新老师成功</t>
-  </si>
-  <si>
-    <t>https://jdapi.jd100.com/coursemgr/v1/updateTeacher</t>
-  </si>
-  <si>
-    <t>"Content-Type":"application/x-www-form-urlencoded","opterToken": opterToken</t>
+    <t>Update001</t>
+  </si>
+  <si>
+    <t>修改教师信息</t>
+  </si>
+  <si>
+    <t>修改老师成功</t>
+  </si>
+  <si>
+    <t>/coursemgr/v1/updateTeacher</t>
   </si>
   <si>
     <t>{
@@ -199,7 +310,34 @@
 }</t>
   </si>
   <si>
-    <t>update-002</t>
+    <t>{
+    "code": 0,
+    "message": "Success",
+    "data": {
+        "guid": "5d672520f71444ecb2ac9e3d9a89f7f9",
+        "displayName": "测试edit1",
+        "realName": "测试",
+        "techSubject": "语文",
+        "techGrade": "高一",
+        "sex": 0,
+        "isTaught": 0,
+        "IDNum": "",
+        "certificateNum": "",
+        "styleMethod": "",
+        "backgroundResume": "",
+        "courseUrl": "",
+        "qualificationUrl": "",
+        "certificateUrl": "",
+        "middleSizeUrl": "",
+        "level": "",
+        "isDisplay": 0,
+        "insertTime": "2020-09-30 07:49:51",
+        "updateTime": "2020-09-30 07:49:55"
+    }
+}</t>
+  </si>
+  <si>
+    <t>Update002</t>
   </si>
   <si>
     <t>更新老师缺少guid</t>
@@ -214,13 +352,536 @@
 }</t>
   </si>
   <si>
-    <t>Q-001</t>
-  </si>
-  <si>
-    <t>获取教师资格列表成功</t>
-  </si>
-  <si>
-    <t>https://jdapi.jd100.com/coursemgr/v1/getQualificationInfo</t>
+    <t>修改老师失败</t>
+  </si>
+  <si>
+    <t>Qualify001</t>
+  </si>
+  <si>
+    <t>获取教师资质信息</t>
+  </si>
+  <si>
+    <t>获取教师资质信息成功</t>
+  </si>
+  <si>
+    <t>/coursemgr/v1/getQualificationInfo</t>
+  </si>
+  <si>
+    <t>{
+    "code": 0,
+    "message": "Success",
+    "data": [
+        {
+            "teacher_name": "测试化学老师",
+            "certificate_url": "https://jdspace.jd100.com/teachers/ecd3d48f-eb8a-4798-86ea-51648b9de096.jpg",
+            "teacher_url": "https://jdspace.jd100.com/teachers/966ba4b5-b947-429a-a860-ce5f99f7062a.jpg",
+            "teacher_certificate": "",
+            "is_special": 1
+        },
+        {
+            "teacher_name": "王大绩",
+            "certificate_url": "https://img.jiandan100.cn/images/teacher/1576119090444167.jpg",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/1553508160800322.jpeg",
+            "teacher_certificate": "",
+            "is_special": 1
+        },
+        {
+            "teacher_name": "测试勿扰老师",
+            "certificate_url": "https://jdspace.jd100.com/teachers/5c5f5d11-13f2-4ce0-8959-5e2ab23f22be.jpg",
+            "teacher_url": "https://jdspace.jd100.com/teachers/be6195dc-5f78-4661-b4dd-6ac709994498.jpg",
+            "teacher_certificate": "111111111111111",
+            "is_special": 1
+        },
+        {
+            "teacher_name": "梁侠",
+            "certificate_url": "https://img.jiandan100.cn/images/teacher/1576119059681199.jpg",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/155358722451753.jpg",
+            "teacher_certificate": "",
+            "is_special": 1
+        },
+        {
+            "teacher_name": "王宝宇",
+            "certificate_url": "http://easyapi.jiandan100.cn/project/173/interface/case/7895",
+            "teacher_url": "http://easyapi.jiandan100.cn/project/173/interface/case/7895",
+            "teacher_certificate": "0000000000000000000000",
+            "is_special": 1
+        },
+        {
+            "teacher_name": "王宝宇",
+            "certificate_url": "https://jdspace.jd100.com/teachers/95b010c6-07cf-4a62-8f0b-ae28372dffb2.jpeg",
+            "teacher_url": "https://jdspace.jd100.com/teachers/c94cc544-ac6b-4567-8fc2-9aed5bdbe682.jpeg",
+            "teacher_certificate": "123456789012345",
+            "is_special": 1
+        },
+        {
+            "teacher_name": "realc",
+            "certificate_url": "特级教师资格证图",
+            "teacher_url": "教师资质头像",
+            "teacher_certificate": "1234567891111111",
+            "is_special": 1
+        },
+        {
+            "teacher_name": "司梁",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/1568110165509284.jpg",
+            "teacher_certificate": "暂无",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "田佩淮",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/tianpeihuai.jpg",
+            "teacher_certificate": "963402140020095",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "孟卫东",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/1553658468991633.jpg",
+            "teacher_certificate": "966500240000920",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "丁益祥",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/1554091826297407.jpg",
+            "teacher_certificate": "971100040057466",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "郑克强",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/zhengkeqiang.jpg",
+            "teacher_certificate": "971110141077014",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "李俊和",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/1553587513835242.jpg",
+            "teacher_certificate": "971110240071599",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "周沛耕",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/1568110104814823.jpg",
+            "teacher_certificate": "证找不到了",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "徐建烽",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/1553739829563918.jpg",
+            "teacher_certificate": "20011100140001717",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "徐建烽",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/1553739829563918.jpg",
+            "teacher_certificate": "20011100140001717",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "李华",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/1554091801402175.jpg",
+            "teacher_certificate": "20021220430001062",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "李煜晖",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/1571130949074297.jpg",
+            "teacher_certificate": "20041100140000494",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "赵正",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/1568428826944272.jpg",
+            "teacher_certificate": "20061100140001653",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "毛允魁",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/maoyunkui.jpg",
+            "teacher_certificate": "20061100141004942",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "孙格林",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/sungelin.jpg",
+            "teacher_certificate": "20064200141006157",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "李伟",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/1568109467747319.jpg",
+            "teacher_certificate": "20071100140000782",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "刘素平",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/liusuping.jpg",
+            "teacher_certificate": "20081470042001268",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "刘红娟",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/liuhongjuan.jpg",
+            "teacher_certificate": "20082320042006095",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "邵丹丹",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/shaodandan.jpg",
+            "teacher_certificate": "20083700142003839",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "田迎力",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/tianyingli.jpg",
+            "teacher_certificate": "20114107042005263",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "叶东云",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/yedongyun.jpg",
+            "teacher_certificate": "20114116642002260",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "毛海燕",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/maohaiyan.jpg",
+            "teacher_certificate": "20114300242002155",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "李玲",
+            "certificate_url": "",
+            "teacher_url": "https://jdspace.jd100.com/teachers/a09c61f0-a95f-415d-a304-231ba6751203.jpg",
+            "teacher_certificate": "20116500242002922",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "赵万东",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/1565421965658351.jpg",
+            "teacher_certificate": "20121100141001839",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "杨扬",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/1570762521366265.jpg",
+            "teacher_certificate": "20121230042002749",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "韩同娟",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/hantongjuan.jpg",
+            "teacher_certificate": "20123700142000466",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "舒德珠",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/shudezhu.jpg",
+            "teacher_certificate": "20124101542000889",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "韩义英",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/hanyingli.jpg",
+            "teacher_certificate": "20124101542002226",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "龙辛莲",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/1552894299671245.jpg",
+            "teacher_certificate": "20131100142000181",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "李艺蕾",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/1571364614250120.jpg",
+            "teacher_certificate": "20133600542000000",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "延陵风楠",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/yanlingfengnan.jpg",
+            "teacher_certificate": "20134116642001265",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "李红",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/1552969578901379.jpg",
+            "teacher_certificate": "20134200242000393",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "贺建红",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/hejianhong.jpg",
+            "teacher_certificate": "20136150042000046",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "李青青",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/1553739466629336.jpg",
+            "teacher_certificate": "20141300142001748",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "冷静",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/lengjing.jpg",
+            "teacher_certificate": "20142270042000609",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "陈媛媛",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/1571364647232466.jpg",
+            "teacher_certificate": "20151230042005621",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "杨梦",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/155288067730176.jpg",
+            "teacher_certificate": "20151480042001846",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "吕光宇",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/lvguangyu.jpg",
+            "teacher_certificate": "20152320042004813",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "马雁",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/mayan.jpg",
+            "teacher_certificate": "20153714842000850",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "张屹然",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/1575972207466392.jpg",
+            "teacher_certificate": "20161100141005552",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "孙论佳",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/1570762479568959.jpg",
+            "teacher_certificate": "20161111132000113",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "王小云",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/wangxiaoyun.jpg",
+            "teacher_certificate": "20161480042000525",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "牛月",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/niuyue.jpg",
+            "teacher_certificate": "20162100142002064",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "李珩",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/liheng.jpg",
+            "teacher_certificate": "20163420142000649",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "陈璐瑶",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/1568428744205227.jpg",
+            "teacher_certificate": "20164300442000624",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "于航",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/yuhang.jpg",
+            "teacher_certificate": "20166110042015088",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "刘丽",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/liuli.jpg",
+            "teacher_certificate": "20171110522000825",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "李玲",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/1552286845151141.jpg",
+            "teacher_certificate": "20171330142000612",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "张宇",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/zhangyu.jpg",
+            "teacher_certificate": "20171430042003183",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "郭倩倩",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/guoqianqian.jpg",
+            "teacher_certificate": "20172100342000052",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "李瑞",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/1562558254095340.jpg",
+            "teacher_certificate": "20173300141002091",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "田昊",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/tianhao.jpg",
+            "teacher_certificate": "20181100141003326",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "黄红铸",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/1568165740825316.jpg",
+            "teacher_certificate": "20181100141007241",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "张毅豪",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/1553478582323157.jpg",
+            "teacher_certificate": "20181100141007367",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "孙蕾",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/sunlei.jpg",
+            "teacher_certificate": "20181100142009204",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "房丽丽",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/1552033419364333.jpg",
+            "teacher_certificate": "20182230132000724",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "房丽丽",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/fanglili.jpg",
+            "teacher_certificate": "20182230132000724",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "朱锁",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/zhusuo.jpg",
+            "teacher_certificate": "20184206641001453",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "刘世超",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/1568109547743952.jpg",
+            "teacher_certificate": "20191100141002300",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "马昕",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/157423014928454.jpg",
+            "teacher_certificate": "20191100141013192",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "路遥垚",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/1568109350024186.jpg",
+            "teacher_certificate": "20191110531000983",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "李跃旭",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/1574817792039222.jpg",
+            "teacher_certificate": "20191230041005788",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "武雪琪",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/1565422096319552.jpg",
+            "teacher_certificate": "20191340142012072",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "潘丽",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/panli.jpg",
+            "teacher_certificate": "20181411042000089 ",
+            "is_special": 0
+        },
+        {
+            "teacher_name": "许晓",
+            "certificate_url": "",
+            "teacher_url": "https://img.jiandan100.cn/images/teacher/xuxiao.jpg",
+            "teacher_certificate": "已通过教师资格证考试",
+            "is_special": 0
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>用例标题</t>
+  </si>
+  <si>
+    <t>请求地址</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>code</t>
   </si>
   <si>
     <t>expected</t>
@@ -245,6 +906,12 @@
 }</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
     <t>Course-002</t>
   </si>
   <si>
@@ -751,12 +1418,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -771,12 +1438,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -786,9 +1462,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -802,7 +1477,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -810,83 +1485,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -902,20 +1500,106 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -924,7 +1608,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,7 +1680,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,13 +1752,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,145 +1794,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,15 +1805,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1144,24 +1825,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1171,6 +1839,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1192,26 +1875,33 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1223,10 +1913,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1235,137 +1925,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1387,11 +2077,47 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1741,224 +2467,279 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.6666666666667" style="4" customWidth="1"/>
-    <col min="2" max="2" width="33.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="52" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4" customWidth="1"/>
-    <col min="5" max="5" width="42.2166666666667" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="18.05" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.8333333333333" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="12.3583333333333" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.85833333333333" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.4416666666667" style="4" customWidth="1"/>
+    <col min="4" max="4" width="5.14166666666667" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.225" style="4" customWidth="1"/>
+    <col min="6" max="6" width="29.8583333333333" style="4" customWidth="1"/>
+    <col min="7" max="7" width="20.275" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.16666666666667" style="4" customWidth="1"/>
+    <col min="9" max="9" width="17.0833333333333" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.6333333333333" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16.8083333333333" style="4" customWidth="1"/>
+    <col min="12" max="12" width="41.525" style="4" customWidth="1"/>
+    <col min="13" max="13" width="27.0833333333333" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="16" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" s="6" customFormat="1" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="J1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="K1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="L1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="M1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+    </row>
+    <row r="2" s="17" customFormat="1" ht="104" customHeight="1" spans="1:12">
+      <c r="A2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="E2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="F2" s="19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
+      <c r="G2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="H2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1" ht="71.25" spans="1:13">
+      <c r="A3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="I3" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="K3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4" s="4" customFormat="1" ht="71.25" spans="1:13">
+      <c r="A4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="17"/>
+    </row>
+    <row r="5" s="4" customFormat="1" spans="1:8">
       <c r="A5" s="2"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
       <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" s="4" customFormat="1" spans="1:8">
       <c r="A6" s="2"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
       <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" s="4" customFormat="1" spans="1:8">
       <c r="A7" s="2"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
       <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" s="4" customFormat="1" spans="1:8">
       <c r="A8" s="2"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" s="4" customFormat="1" spans="1:8">
       <c r="A9" s="2"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" s="4" customFormat="1" spans="1:8">
       <c r="A10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" s="4" customFormat="1" spans="1:8">
       <c r="A11" s="2"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" s="4" customFormat="1" spans="1:8">
       <c r="A12" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" s="4" customFormat="1" spans="1:8">
       <c r="A13" s="2"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="2"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1966,231 +2747,283 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E1" sqref="E$1:E$1048576"/>
+      <selection activeCell="A1" sqref="A1:L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.6666666666667" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.9916666666667" style="4" customWidth="1"/>
-    <col min="3" max="3" width="52" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.71666666666667" style="4" customWidth="1"/>
-    <col min="5" max="5" width="35.55" style="4" customWidth="1"/>
-    <col min="6" max="6" width="26.1" style="4" customWidth="1"/>
-    <col min="7" max="7" width="22.075" style="4" customWidth="1"/>
-    <col min="8" max="8" width="21.525" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="11.6666666666667" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.44166666666667" style="12" customWidth="1"/>
+    <col min="3" max="3" width="13.05" style="12" customWidth="1"/>
+    <col min="4" max="4" width="6.10833333333333" style="12" customWidth="1"/>
+    <col min="5" max="5" width="24.025" style="12" customWidth="1"/>
+    <col min="6" max="6" width="29.45" style="12" customWidth="1"/>
+    <col min="7" max="7" width="18.8833333333333" style="12" customWidth="1"/>
+    <col min="8" max="8" width="9.16666666666667" style="12" customWidth="1"/>
+    <col min="9" max="9" width="35.8333333333333" style="12" customWidth="1"/>
+    <col min="10" max="10" width="24.8583333333333" style="12" customWidth="1"/>
+    <col min="11" max="11" width="13.3333333333333" style="12" customWidth="1"/>
+    <col min="12" max="12" width="34.7166666666667" style="12" customWidth="1"/>
+    <col min="13" max="13" width="14.3666666666667" style="12" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="13" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" s="6" customFormat="1" ht="108" spans="1:8">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" ht="94.5" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" ht="108" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="2" s="8" customFormat="1" ht="104" customHeight="1" spans="1:12">
+      <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" ht="94.5" spans="1:8">
-      <c r="A5" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="D2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="F2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" ht="108" spans="1:8">
-      <c r="A6" s="2" t="s">
+      <c r="G2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="H2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="I2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>18</v>
+      <c r="J2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" s="12" customFormat="1" ht="85" customHeight="1" spans="1:13">
+      <c r="A3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" s="12" customFormat="1" ht="130" customHeight="1" spans="1:13">
+      <c r="A4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" ht="116" customHeight="1" spans="1:12">
+      <c r="A5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" ht="139" customHeight="1" spans="1:12">
+      <c r="A6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
+      <c r="A7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
+      <c r="A8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
+      <c r="A9" s="9"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
+      <c r="A10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2202,101 +3035,141 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.6666666666667" style="4" customWidth="1"/>
     <col min="2" max="2" width="18.325" style="4" customWidth="1"/>
-    <col min="3" max="3" width="52" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.4416666666667" style="4" customWidth="1"/>
     <col min="4" max="4" width="9" style="4" customWidth="1"/>
-    <col min="5" max="5" width="34.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.2166666666667" style="4" customWidth="1"/>
     <col min="6" max="6" width="40.4166666666667" style="4" customWidth="1"/>
     <col min="7" max="7" width="9" style="4"/>
     <col min="8" max="8" width="18.1916666666667" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="4"/>
+    <col min="9" max="9" width="25.1333333333333" style="4" customWidth="1"/>
+    <col min="10" max="10" width="33.4666666666667" style="4" customWidth="1"/>
+    <col min="11" max="11" width="13.475" style="4" customWidth="1"/>
+    <col min="12" max="12" width="26.3833333333333" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="14.25" spans="1:12">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" s="6" customFormat="1" ht="108" spans="1:8">
-      <c r="A2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" ht="94.5" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="181" customHeight="1" spans="1:12">
+      <c r="A2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" ht="175" customHeight="1" spans="1:12">
+      <c r="A3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2331,6 +3204,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
     </row>
@@ -2339,42 +3213,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="https://jdapi.jd100.com/coursemgr/v1/updateTeacher"/>
-    <hyperlink ref="C2" r:id="rId2" display="https://jdapi.jd100.com/coursemgr/v1/updateTeacher"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2384,65 +3223,101 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.6666666666667" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.8333333333333" style="4" customWidth="1"/>
-    <col min="3" max="3" width="58.8333333333333" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18" style="4" customWidth="1"/>
     <col min="4" max="4" width="9" style="4" customWidth="1"/>
-    <col min="5" max="5" width="40.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9" style="4"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="29.75" style="4" customWidth="1"/>
     <col min="7" max="7" width="17.8333333333333" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="4"/>
+    <col min="8" max="11" width="9" style="4"/>
+    <col min="12" max="12" width="34.5" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="4" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" s="6" customFormat="1" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2"/>
+      <c r="L1" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="1" ht="181" customHeight="1" spans="1:12">
+      <c r="A2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
@@ -2450,29 +3325,33 @@
       <c r="E3" s="3"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
       <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
       <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
       <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2"/>
@@ -2504,6 +3383,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
       <c r="F12" s="2"/>
@@ -2515,35 +3395,6 @@
       <c r="E13" s="3"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2556,7 +3407,7 @@
   <sheetPr/>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -2577,390 +3428,390 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" ht="108" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" ht="108" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" ht="108" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" ht="108" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" ht="108" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" ht="108" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" ht="108" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" ht="108" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" ht="108" spans="1:7">
       <c r="A10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" ht="108" spans="1:7">
       <c r="A11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="12" ht="108" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" ht="108" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" ht="108" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" ht="108" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" ht="108" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" ht="108" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2998,183 +3849,183 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" ht="108" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" ht="108" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" ht="108" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" ht="108" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" ht="108" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" ht="108" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" ht="108" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3209,137 +4060,137 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" ht="81" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" ht="81" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" ht="81" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" ht="81" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" ht="81" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3374,137 +4225,137 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" ht="94.5" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" ht="94.5" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" ht="94.5" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" ht="94.5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" ht="94.5" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3519,7 +4370,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -3539,45 +4390,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="54" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/untitled/data/testcase.xlsx
+++ b/untitled/data/testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27000" windowHeight="12390" firstSheet="1" activeTab="8"/>
+    <workbookView windowWidth="25035" windowHeight="10065" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Teacherlist1" sheetId="10" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="186">
   <si>
     <t>用例编号</t>
   </si>
@@ -1418,10 +1418,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1456,41 +1456,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1522,47 +1501,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1585,6 +1532,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1592,10 +1576,26 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1614,7 +1614,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1626,7 +1686,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1644,115 +1776,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1764,37 +1788,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1805,6 +1805,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1825,20 +1869,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1872,39 +1905,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1913,10 +1913,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1925,133 +1925,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2650,8 +2650,6 @@
     </row>
     <row r="5" s="4" customFormat="1" spans="1:8">
       <c r="A5" s="2"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
@@ -2660,8 +2658,6 @@
     </row>
     <row r="6" s="4" customFormat="1" spans="1:8">
       <c r="A6" s="2"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
@@ -2670,8 +2666,6 @@
     </row>
     <row r="7" s="4" customFormat="1" spans="1:8">
       <c r="A7" s="2"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
@@ -2680,8 +2674,6 @@
     </row>
     <row r="8" s="4" customFormat="1" spans="1:8">
       <c r="A8" s="2"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
@@ -2690,8 +2682,6 @@
     </row>
     <row r="9" s="4" customFormat="1" spans="1:8">
       <c r="A9" s="2"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
@@ -2700,8 +2690,6 @@
     </row>
     <row r="10" s="4" customFormat="1" spans="1:8">
       <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
@@ -2710,8 +2698,6 @@
     </row>
     <row r="11" s="4" customFormat="1" spans="1:8">
       <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
@@ -2720,7 +2706,6 @@
     </row>
     <row r="12" s="4" customFormat="1" spans="1:8">
       <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2730,8 +2715,6 @@
     </row>
     <row r="13" s="4" customFormat="1" spans="1:8">
       <c r="A13" s="2"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
@@ -2749,8 +2732,8 @@
   <sheetPr/>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:L6"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3037,8 +3020,8 @@
   <sheetPr/>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD3"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3048,7 +3031,7 @@
     <col min="3" max="3" width="14.4416666666667" style="4" customWidth="1"/>
     <col min="4" max="4" width="9" style="4" customWidth="1"/>
     <col min="5" max="5" width="17.2166666666667" style="4" customWidth="1"/>
-    <col min="6" max="6" width="40.4166666666667" style="4" customWidth="1"/>
+    <col min="6" max="6" width="29.2166666666667" style="4" customWidth="1"/>
     <col min="7" max="7" width="9" style="4"/>
     <col min="8" max="8" width="18.1916666666667" style="4" customWidth="1"/>
     <col min="9" max="9" width="25.1333333333333" style="4" customWidth="1"/>
@@ -3225,8 +3208,8 @@
   <sheetPr/>
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3238,8 +3221,9 @@
     <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
     <col min="6" max="6" width="29.75" style="4" customWidth="1"/>
     <col min="7" max="7" width="17.8333333333333" style="4" customWidth="1"/>
-    <col min="8" max="11" width="9" style="4"/>
-    <col min="12" max="12" width="34.5" style="4" customWidth="1"/>
+    <col min="8" max="10" width="9" style="4"/>
+    <col min="11" max="11" width="23.7416666666667" style="4" customWidth="1"/>
+    <col min="12" max="12" width="51.1083333333333" style="4" customWidth="1"/>
     <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -3405,13 +3389,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.6666666666667" style="4" customWidth="1"/>
     <col min="2" max="2" width="33.5" style="4" customWidth="1"/>
@@ -3446,35 +3430,50 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" ht="108" spans="1:7">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" s="6" customFormat="1" ht="108" spans="1:7">
+      <c r="A3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" ht="108" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>81</v>
@@ -3483,21 +3482,21 @@
         <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" ht="108" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>81</v>
@@ -3506,7 +3505,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>88</v>
@@ -3517,10 +3516,10 @@
     </row>
     <row r="5" ht="108" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>81</v>
@@ -3529,7 +3528,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>88</v>
@@ -3540,10 +3539,10 @@
     </row>
     <row r="6" ht="108" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>81</v>
@@ -3552,7 +3551,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>88</v>
@@ -3563,10 +3562,10 @@
     </row>
     <row r="7" ht="108" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>81</v>
@@ -3575,7 +3574,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>88</v>
@@ -3586,10 +3585,10 @@
     </row>
     <row r="8" ht="108" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>81</v>
@@ -3598,21 +3597,21 @@
         <v>20</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" ht="108" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>81</v>
@@ -3621,7 +3620,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>83</v>
@@ -3632,10 +3631,10 @@
     </row>
     <row r="10" ht="108" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>81</v>
@@ -3644,7 +3643,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>83</v>
@@ -3655,10 +3654,10 @@
     </row>
     <row r="11" ht="108" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>81</v>
@@ -3667,7 +3666,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>83</v>
@@ -3678,10 +3677,10 @@
     </row>
     <row r="12" ht="108" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>81</v>
@@ -3690,7 +3689,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>83</v>
@@ -3701,10 +3700,10 @@
     </row>
     <row r="13" ht="108" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>81</v>
@@ -3713,7 +3712,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>83</v>
@@ -3724,10 +3723,10 @@
     </row>
     <row r="14" ht="108" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>81</v>
@@ -3736,7 +3735,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>83</v>
@@ -3747,10 +3746,10 @@
     </row>
     <row r="15" ht="108" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>81</v>
@@ -3759,7 +3758,7 @@
         <v>20</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>83</v>
@@ -3770,19 +3769,19 @@
     </row>
     <row r="16" ht="108" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>83</v>
@@ -3793,24 +3792,47 @@
     </row>
     <row r="17" ht="108" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>81</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>83</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" ht="108" spans="1:7">
+      <c r="A18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3818,7 +3840,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="F2" numberStoredAsText="1"/>
+    <ignoredError sqref="F3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4369,7 +4391,7 @@
   <sheetPr/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
